--- a/src/excel_files/test.xlsx
+++ b/src/excel_files/test.xlsx
@@ -1,67 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royal\Documents\8th sem\Intern\node-excel-project\src\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB36112-40CA-420A-8C68-977EA405E296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78424C2-9DF3-4997-B494-B48382F3B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
   <si>
     <t>marks</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>sandip</t>
   </si>
   <si>
+    <t>kavresthali</t>
+  </si>
+  <si>
     <t>sajan</t>
   </si>
   <si>
+    <t>basundhara</t>
+  </si>
+  <si>
     <t>rajesh</t>
   </si>
   <si>
+    <t>hattiban</t>
+  </si>
+  <si>
     <t>bob</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>kavresthali</t>
-  </si>
-  <si>
-    <t>hattiban</t>
-  </si>
-  <si>
-    <t>gangabu</t>
-  </si>
-  <si>
-    <t>basundhara</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>sagar</t>
   </si>
   <si>
@@ -72,19 +71,34 @@
   </si>
   <si>
     <t>jarankhu</t>
+  </si>
+  <si>
+    <t>kalanki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +109,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -107,9 +128,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -117,7 +153,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -263,7 +299,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -274,27 +309,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -316,7 +355,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -374,7 +413,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -387,13 +426,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -405,225 +443,172 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9818414533</v>
+      </c>
+      <c r="E2" s="3">
+        <v>395</v>
+      </c>
+      <c r="F2" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9818414522</v>
+      </c>
+      <c r="E3" s="3">
+        <v>370</v>
+      </c>
+      <c r="F3" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9818414578</v>
+      </c>
+      <c r="E4" s="3">
+        <v>369</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9818414566</v>
+      </c>
+      <c r="E5" s="3">
+        <v>382</v>
+      </c>
+      <c r="F5" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9818414588</v>
+      </c>
+      <c r="E6" s="3">
+        <v>300</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9818414533</v>
-      </c>
-      <c r="D2" s="1">
-        <v>395</v>
-      </c>
-      <c r="E2" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9818414522</v>
-      </c>
-      <c r="D3" s="1">
-        <v>370</v>
-      </c>
-      <c r="E3" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9818414578</v>
-      </c>
-      <c r="D4" s="1">
-        <v>369</v>
-      </c>
-      <c r="E4" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9818414566</v>
-      </c>
-      <c r="D5" s="1">
-        <v>382</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9818414422</v>
+      </c>
+      <c r="E7" s="3">
+        <v>290</v>
+      </c>
+      <c r="F7" s="3">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A3:A5" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71EDA9-CC5B-47A9-9B4B-92B03BA5B7B6}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9818414588</v>
-      </c>
-      <c r="D2" s="1">
-        <v>300</v>
-      </c>
-      <c r="E2" s="1">
-        <v>500</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9818414499</v>
-      </c>
-      <c r="D3" s="1">
-        <v>280</v>
-      </c>
-      <c r="E3" s="1">
-        <v>500</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/excel_files/test.xlsx
+++ b/src/excel_files/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royal\Documents\8th sem\Intern\node-excel-project\src\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78424C2-9DF3-4997-B494-B48382F3B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A3EBA-E95B-4066-B9A4-66805514C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>jarankhu</t>
   </si>
   <si>
-    <t>kalanki</t>
+    <t>gangabu</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>9818414533</v>
       </c>
       <c r="E2" s="3">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F2" s="3">
         <v>500</v>
@@ -598,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="6">
-        <v>9818414422</v>
+        <v>981888</v>
       </c>
       <c r="E7" s="3">
         <v>290</v>

--- a/src/excel_files/test.xlsx
+++ b/src/excel_files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royal\Documents\8th sem\Intern\node-excel-project\src\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A3EBA-E95B-4066-B9A4-66805514C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE2E90F-8014-4669-984D-49FA8A626EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>hattiban</t>
   </si>
   <si>
-    <t>bob</t>
-  </si>
-  <si>
     <t>sagar</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>gangabu</t>
+  </si>
+  <si>
+    <t>ujjwal</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +501,7 @@
         <v>9818414533</v>
       </c>
       <c r="E2" s="3">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="F2" s="3">
         <v>500</v>
@@ -552,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>9818414566</v>
@@ -572,10 +572,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="6">
         <v>9818414588</v>
@@ -592,16 +592,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="6">
-        <v>981888</v>
+        <v>9818886565</v>
       </c>
       <c r="E7" s="3">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3">
         <v>500</v>
